--- a/src/main/webapp/excel/VIP(EU).xlsx
+++ b/src/main/webapp/excel/VIP(EU).xlsx
@@ -3,22 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuojun.feng\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">detail!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">detail!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Member Code</t>
   </si>
@@ -32,12 +36,6 @@
     <t>Store Code</t>
   </si>
   <si>
-    <t>H001</t>
-  </si>
-  <si>
-    <t>H002</t>
-  </si>
-  <si>
     <t>H004</t>
   </si>
   <si>
@@ -47,61 +45,10 @@
     <t>MAI0020000038</t>
   </si>
   <si>
-    <t>SELMAROUROU@PLANET.TN</t>
-  </si>
-  <si>
     <t>I003</t>
   </si>
   <si>
-    <t>900080007</t>
-  </si>
-  <si>
-    <t>900090005</t>
-  </si>
-  <si>
-    <t>MAH0040000169</t>
-  </si>
-  <si>
-    <t>garyhon1999@icloud.com</t>
-  </si>
-  <si>
-    <t>90051170131</t>
-  </si>
-  <si>
-    <t>MAH0040000170</t>
-  </si>
-  <si>
-    <t>947997619@qq.com</t>
-  </si>
-  <si>
-    <t>MAH0040000168</t>
-  </si>
-  <si>
-    <t>969947341@qq.com</t>
-  </si>
-  <si>
-    <t>90051180107</t>
-  </si>
-  <si>
-    <t>MAH0040000171</t>
-  </si>
-  <si>
-    <t>394831750@qq.com</t>
-  </si>
-  <si>
-    <t>MAH0040000172</t>
-  </si>
-  <si>
-    <t>shmq0912@163.com</t>
-  </si>
-  <si>
     <t>MAI0030000042</t>
-  </si>
-  <si>
-    <t>m.argotd@hotmail.fr</t>
-  </si>
-  <si>
-    <t>90051180112</t>
   </si>
   <si>
     <r>
@@ -129,13 +76,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MAH0000000001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1@moco.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>01-JAN-18</t>
   </si>
   <si>
-    <t>01-MAY-18</t>
-  </si>
-  <si>
-    <t>02-APR-18</t>
+    <t>test2@mo-co.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-FEB-18</t>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-MAR-18</t>
+  </si>
+  <si>
+    <t>MAH0000000001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4@126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -145,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,25 +147,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,12 +181,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,24 +199,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,230 +487,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>